--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316174.846961946</v>
+        <v>1408462.206579772</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7798524.267992094</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.64103076</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10604035.03148276</v>
+        <v>11039457.79593271</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>28.13446210676921</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>142.3945047270882</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>81.80445351869601</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>215.039344642804</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>302.1297585584152</v>
       </c>
     </row>
     <row r="6">
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>28.62180822489427</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>144.4120465207994</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>216.2017616785448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.681761834235435</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>129.030642207707</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>74.53436060286496</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>62.87117804934262</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>13.42874471570741</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>111.728177046929</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>89.85922969650673</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>67.37649928430024</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>158.6147675065355</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>22.89521545117001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>212.3425072646205</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>78.83384846861658</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>267.1974740220506</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.50187133648294</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>27.1929266279069</v>
       </c>
       <c r="T34" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589007</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>106.5867442799594</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3715,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>179.8290586162098</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>218.1690567639032</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249702</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>299.4782125119778</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>84.69473660442819</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.69473660442888</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2437.52426527019</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2437.52426527019</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2106.461377926619</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4425,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>182.2302673832261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>182.2302673832261</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>182.2302673832261</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>182.2302673832261</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X4" t="n">
-        <v>182.2302673832261</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.2302673832261</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.892406545185</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.892406545185</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1485.892406545185</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1100.104153946941</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>689.1182491573331</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>271.15444105552</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="6">
@@ -4653,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.8413109986426</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="C7" t="n">
-        <v>552.8413109986426</v>
+        <v>240.6022717867174</v>
       </c>
       <c r="D7" t="n">
-        <v>552.8413109986426</v>
+        <v>240.6022717867174</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162495</v>
+        <v>240.6022717867174</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>240.6022717867174</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>552.8413109986426</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>552.8413109986426</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>552.8413109986426</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X7" t="n">
-        <v>552.8413109986426</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.8413109986426</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1803.3088759247</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1434.346358984288</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1076.080660377538</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>690.2924077792936</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2464.244164535375</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2464.244164535375</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2133.181277191804</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X8" t="n">
-        <v>2189.908715988822</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y8" t="n">
-        <v>2189.908715988822</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.7225141620388</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>470.7225141620388</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>320.605874749703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>320.605874749703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>320.605874749703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620388</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1624.638712032431</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1561.13247157855</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1202.866772971799</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>817.078520373555</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883008</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539437</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269323</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.778044008243</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>1624.638712032431</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1722.044275313594</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1722.044275313594</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.044275313594</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5510,55 +5512,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>416.3606924710442</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>750.1800661608906</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814245</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5598,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>817.1408434279687</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="C19" t="n">
-        <v>817.1408434279687</v>
+        <v>578.4566513936927</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>578.4566513936927</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>430.5435578112996</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>283.6536103133892</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>283.6536103133892</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5698,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.206478295169</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W19" t="n">
-        <v>998.7893082582084</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X19" t="n">
-        <v>998.7893082582084</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.7893082582084</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5753,25 +5755,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2497.450077968865</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5786,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.1038984121913</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C22" t="n">
-        <v>339.1038984121913</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5932,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1292.843572383296</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>1038.159084177409</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W22" t="n">
-        <v>748.7419141404483</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X22" t="n">
-        <v>520.752363242431</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y22" t="n">
-        <v>520.752363242431</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846823</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.0030950818858</v>
+        <v>976.0862420864445</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0669121539789</v>
+        <v>807.1500591585376</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>657.0334197462018</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>509.1203261638087</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>362.2303786658983</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="X25" t="n">
-        <v>908.6515599121255</v>
+        <v>1157.734706916684</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.6515599121255</v>
+        <v>1157.734706916684</v>
       </c>
     </row>
     <row r="26">
@@ -6206,55 +6208,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.3871648742117</v>
+        <v>935.2642346193824</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>766.3280516914755</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>616.2114122791397</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>468.2983186967466</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>321.4083711988362</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W28" t="n">
-        <v>639.3767157722291</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X28" t="n">
-        <v>411.3871648742117</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y28" t="n">
-        <v>411.3871648742117</v>
+        <v>935.2642346193824</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6646,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3942.370854773035</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C34" t="n">
-        <v>3773.434671845128</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D34" t="n">
-        <v>3623.318032432792</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1928.875863450252</v>
       </c>
       <c r="T34" t="n">
-        <v>4344.811898746804</v>
+        <v>1707.109248019779</v>
       </c>
       <c r="U34" t="n">
-        <v>4344.811898746804</v>
+        <v>1418.006381145422</v>
       </c>
       <c r="V34" t="n">
-        <v>4344.811898746804</v>
+        <v>1163.321892939535</v>
       </c>
       <c r="W34" t="n">
-        <v>4344.811898746804</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X34" t="n">
-        <v>4344.811898746804</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y34" t="n">
-        <v>4124.019319603274</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686787</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367487</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.08900508636</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425109</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419653</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279156</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917023</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419719</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012235</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505715</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.82648218357</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317986</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086243</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358042</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152509</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387555</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.336921276364</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4007383484569</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D37" t="n">
-        <v>704.2840989361212</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839438</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
         <v>344.6708498442063</v>
@@ -7108,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V37" t="n">
-        <v>1943.184686185112</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W37" t="n">
-        <v>1653.767516148151</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X37" t="n">
-        <v>1425.777965250134</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.985386106604</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7157,46 +7159,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.866738172569</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844493</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.14211023273</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679676</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7208,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7284,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.6328654632896</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="C40" t="n">
-        <v>653.6966825353827</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="D40" t="n">
-        <v>653.6966825353827</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
         <v>653.6966825353827</v>
@@ -7327,13 +7329,13 @@
         <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7363,19 +7365,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.414995504837</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1271.414995504837</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.414995504837</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X40" t="n">
-        <v>1043.42544460682</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.6328654632896</v>
+        <v>909.2731541783409</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>2949.638265046255</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.233036999167</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3105.233036999167</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2731.767278738087</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>3154.542034367486</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>2980.089005086359</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>2831.154595425108</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>2671.917140419652</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>4777.907369012235</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>4648.469482505715</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>4455.82648218357</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>4227.758635317985</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>3992.606527086243</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>3738.369170358041</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>3530.517670152508</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>3322.757371387554</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.2880032601528</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3518203322459</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1542.890966501055</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1914.135768168901</v>
+        <v>999.1036114208117</v>
       </c>
       <c r="W43" t="n">
-        <v>1624.71859813194</v>
+        <v>709.6864413838512</v>
       </c>
       <c r="X43" t="n">
-        <v>1396.729047233923</v>
+        <v>481.6968904858338</v>
       </c>
       <c r="Y43" t="n">
-        <v>1175.936468090393</v>
+        <v>260.9043113423037</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1930.094988518961</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1561.13247157855</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1202.866772971799</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>817.078520373555</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520489</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3009.337405520489</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3009.337405520489</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>2706.834160558895</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2316.694828583083</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.0623554265553</v>
+        <v>181.111273442767</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>181.111273442767</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>181.111273442767</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>181.111273442767</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>181.111273442767</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.464090846021</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1615.697475415547</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1326.59460854119</v>
+        <v>1355.643526557402</v>
       </c>
       <c r="V46" t="n">
-        <v>1071.910120335303</v>
+        <v>1100.959038351515</v>
       </c>
       <c r="W46" t="n">
-        <v>782.4929502983425</v>
+        <v>811.5418683145542</v>
       </c>
       <c r="X46" t="n">
-        <v>554.5033994003252</v>
+        <v>583.5523174165369</v>
       </c>
       <c r="Y46" t="n">
-        <v>333.710820256795</v>
+        <v>362.7597382730067</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>285.6623071682324</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561023</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>410.4190035206659</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>201.9664098701136</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400237</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>288.0478149561015</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>77.35795430877226</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>302.4017137216649</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>33.50229141006236</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>206.1202045604618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>36.88729597128334</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>54.89578521781405</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>112.4554808976371</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>127.5970706990774</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>143.1305928078582</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>13.36714812441662</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>87.19195979041164</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>19.32552431454036</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7449497621449</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24886,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>162.576098703535</v>
       </c>
       <c r="T34" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491497</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>42.02872873825298</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>106.382779589403</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>109.5832017062317</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696713</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>70.25288816649123</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>82.55208449419965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>81.33107165459934</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>788562.9353882042</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>788562.9353882041</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>788562.9353882039</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
@@ -26320,22 +26322,22 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651048</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="F2" t="n">
-        <v>409196.5187651047</v>
+        <v>476498.1442643796</v>
       </c>
       <c r="G2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="H2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="I2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="J2" t="n">
         <v>476498.1442643797</v>
-      </c>
-      <c r="H2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="I2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="J2" t="n">
-        <v>476498.1442643798</v>
       </c>
       <c r="K2" t="n">
         <v>476498.1442643797</v>
@@ -26344,16 +26346,16 @@
         <v>476498.1442643798</v>
       </c>
       <c r="M2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="N2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651048</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651049</v>
+        <v>476498.14426438</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503536</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091481</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254663</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.053378456272184e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,22 +26426,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="H4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
@@ -26448,16 +26450,16 @@
         <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="P4" t="n">
-        <v>4890.851381993015</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26491,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371363</v>
       </c>
-      <c r="N5" t="n">
-        <v>96383.51825371363</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871156</v>
+        <v>-381266.4012871158</v>
       </c>
       <c r="C6" t="n">
         <v>208701.4779274289</v>
@@ -26528,22 +26530,22 @@
         <v>208701.4779274289</v>
       </c>
       <c r="E6" t="n">
-        <v>-288960.9891286351</v>
+        <v>-372353.5116577345</v>
       </c>
       <c r="F6" t="n">
-        <v>329999.3268217184</v>
+        <v>355023.9023356721</v>
       </c>
       <c r="G6" t="n">
-        <v>255500.4936547575</v>
+        <v>355023.9023356723</v>
       </c>
       <c r="H6" t="n">
-        <v>355023.9023356723</v>
+        <v>355023.9023356724</v>
       </c>
       <c r="I6" t="n">
-        <v>355023.9023356723</v>
+        <v>355023.9023356724</v>
       </c>
       <c r="J6" t="n">
-        <v>178600.6831430793</v>
+        <v>178600.6831430794</v>
       </c>
       <c r="K6" t="n">
         <v>355023.9023356723</v>
@@ -26552,16 +26554,16 @@
         <v>355023.9023356724</v>
       </c>
       <c r="M6" t="n">
-        <v>315870.4195631258</v>
+        <v>225381.5874967276</v>
       </c>
       <c r="N6" t="n">
-        <v>355023.9023356723</v>
+        <v>355023.9023356722</v>
       </c>
       <c r="O6" t="n">
-        <v>329999.3268217185</v>
+        <v>355023.9023356727</v>
       </c>
       <c r="P6" t="n">
-        <v>329999.3268217186</v>
+        <v>355023.9023356719</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26993,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477373</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026372</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026372</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>188.3138582508886</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.8434339289654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>50.80735538553375</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>63.61659450423524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>108.8834281215532</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>84.10818009763841</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>138.6879940341566</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>141.8698277211783</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>190.6742840631666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>214.7665585234224</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.27916005134395</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>177.603282720963</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -33029,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138803</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35653,16 +35655,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129119</v>
+        <v>837.9641425811438</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>324.0400586087371</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35896,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36121,19 +36123,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115028</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>949.3401193508927</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36595,19 +36597,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36677,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340061</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425514</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282428</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>743.6379293484337</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>629.6597897216833</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1408462.206579772</v>
+        <v>1402740.594611886</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>308.6879100612088</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>28.13446210676921</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>370.4137563458297</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,10 +946,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.1297585584152</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.85099796338696</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>28.62180822489427</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>102.6153813640004</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.681761834235435</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>74.53436060286496</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>62.09581973348946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>94.01587853653081</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.9187566128689</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>89.85922969650673</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.37649928430024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>22.89521545117001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>136.0325688578955</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>78.83384846861658</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,13 +2772,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>46.50187133648294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>35.19569619650115</v>
       </c>
       <c r="S34" t="n">
-        <v>27.1929266279069</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>5.264199955998904</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>106.5867442799594</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>13.89072837997162</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.6898441249702</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083901</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.69473660442888</v>
+        <v>107.3160108222347</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>898.3495310014346</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>540.0838323946841</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>540.0838323946841</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>533.1383316454807</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>519.2149275840716</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.52426527019</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.52426527019</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.461377926619</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.692722656504</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4527,13 +4527,13 @@
         <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>581.5642672655068</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2118.304160219349</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146243</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C7" t="n">
-        <v>240.6022717867174</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>240.6022717867174</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>240.6022717867174</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>240.6022717867174</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>891.4467595608955</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>505.6585069626513</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>498.7130062134478</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>484.7896021520388</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>157.5948821880416</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2464.244164535375</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2464.244164535375</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2133.181277191804</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1780.41262192169</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1780.41262192169</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5114,16 +5114,16 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1893.620415868856</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1604.203245831895</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1376.213694933878</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1155.421115790348</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5269,37 +5269,37 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>619.8559841413803</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C16" t="n">
-        <v>619.8559841413803</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>619.8559841413803</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>619.8559841413803</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>619.8559841413803</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>619.8559841413803</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,40 +5503,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.3928343215996</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>578.4566513936927</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>578.4566513936927</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>430.5435578112996</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>283.6536103133892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>283.6536103133892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.240599230347</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.823429193387</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1149.833878295369</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.0412991518393</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5761,43 +5761,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2497.450077968865</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3044.228895027647</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.613856788637</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851287</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>931.4530568143261</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>703.4635059163088</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.6709267727787</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -6004,13 +6004,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>976.0862420864445</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
-        <v>807.1500591585376</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>657.0334197462018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>509.1203261638087</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>362.2303786658983</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814702</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>1385.724257814702</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>1385.724257814702</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X25" t="n">
-        <v>1157.734706916684</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y25" t="n">
-        <v>1157.734706916684</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>935.2642346193824</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>766.3280516914755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>616.2114122791397</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>468.2983186967466</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>321.4083711988362</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.473983799873</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.056813762912</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1156.056813762912</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>935.2642346193824</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>901.3723255570255</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C31" t="n">
         <v>854.4007383484569</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X31" t="n">
-        <v>901.3723255570255</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.3723255570255</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,19 +6700,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232731</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>243.4741280307875</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C34" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1920.79225782541</v>
       </c>
       <c r="S34" t="n">
-        <v>1928.875863450252</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T34" t="n">
-        <v>1707.109248019779</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U34" t="n">
-        <v>1418.006381145422</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.321892939535</v>
+        <v>963.5524031415189</v>
       </c>
       <c r="W34" t="n">
-        <v>873.9047229025747</v>
+        <v>674.1352331045583</v>
       </c>
       <c r="X34" t="n">
-        <v>645.9151720045573</v>
+        <v>446.145682206541</v>
       </c>
       <c r="Y34" t="n">
-        <v>425.1225928610272</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143013</v>
@@ -6925,43 +6925,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686787</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522033</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.0738540998319</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C37" t="n">
-        <v>171.0738540998319</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>171.0738540998319</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>171.0738540998319</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>171.0738540998319</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>171.0738540998319</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1951.026092411776</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1951.026092411776</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384227</v>
+        <v>1661.923225537419</v>
       </c>
       <c r="V37" t="n">
-        <v>909.27315417834</v>
+        <v>1407.238737331532</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413794</v>
+        <v>1117.821567294572</v>
       </c>
       <c r="X37" t="n">
-        <v>391.8664332433621</v>
+        <v>889.8320163965544</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998319</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7244,22 +7244,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>909.2731541783409</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C40" t="n">
-        <v>909.2731541783409</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7365,19 +7365,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W40" t="n">
-        <v>909.2731541783409</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X40" t="n">
-        <v>909.2731541783409</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.2731541783409</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001586</v>
@@ -7411,19 +7411,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277727</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2949.638265046255</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367486</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086359</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425108</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419652</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012235</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505715</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.82648218357</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317985</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086243</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358041</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152508</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387554</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C43" t="n">
         <v>95.56103444839441</v>
@@ -7572,10 +7572,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
         <v>1005.387693892251</v>
@@ -7587,34 +7587,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208117</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838512</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858338</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423037</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.961311426849</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.111273442767</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="C46" t="n">
-        <v>181.111273442767</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="D46" t="n">
-        <v>181.111273442767</v>
+        <v>350.1782321620868</v>
       </c>
       <c r="E46" t="n">
-        <v>181.111273442767</v>
+        <v>350.1782321620868</v>
       </c>
       <c r="F46" t="n">
-        <v>181.111273442767</v>
+        <v>350.1782321620868</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557402</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351515</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145542</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X46" t="n">
-        <v>583.5523174165369</v>
+        <v>902.7359155481925</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.7597382730067</v>
+        <v>681.9433364046623</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>285.6623071682324</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>410.4190035206659</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>67.53663776704209</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701136</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11071,10 +11071,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>77.35795430877226</v>
+        <v>189.7998007892646</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>201.9664098701128</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.0418235903385</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>85.81610164540649</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>33.50229141006236</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>54.89578521781405</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.4554808976371</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>143.1305928078582</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>82.55208449419931</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>87.19195979041164</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>120.7449497621449</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>273.1846460852166</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>53.73645647354618</v>
       </c>
       <c r="S34" t="n">
-        <v>162.576098703535</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>21.59472895491497</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.504825375443</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>42.02872873825298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>152.1350798790566</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>92.48912964370466</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>81.33107165459934</v>
+        <v>58.70979743679355</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="E2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.1442643796</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="G2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="I2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="J2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="K2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="L2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="I2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="J2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="K2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>476498.1442643798</v>
       </c>
-      <c r="M2" t="n">
-        <v>476498.1442643797</v>
-      </c>
       <c r="N2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="P2" t="n">
-        <v>476498.14426438</v>
+        <v>476498.1442643799</v>
       </c>
     </row>
     <row r="3">
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.053378456272184e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,37 +26429,37 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26487,13 +26487,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381266.4012871158</v>
+        <v>-381266.4012871156</v>
       </c>
       <c r="C6" t="n">
-        <v>208701.4779274289</v>
+        <v>208701.4779274288</v>
       </c>
       <c r="D6" t="n">
-        <v>208701.4779274289</v>
+        <v>208701.4779274286</v>
       </c>
       <c r="E6" t="n">
-        <v>-372353.5116577345</v>
+        <v>-373025.4665599923</v>
       </c>
       <c r="F6" t="n">
-        <v>355023.9023356721</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="G6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334144</v>
       </c>
       <c r="H6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334143</v>
       </c>
       <c r="I6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="J6" t="n">
-        <v>178600.6831430794</v>
+        <v>177928.7282408214</v>
       </c>
       <c r="K6" t="n">
-        <v>355023.9023356723</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="L6" t="n">
-        <v>355023.9023356724</v>
+        <v>354351.9474334146</v>
       </c>
       <c r="M6" t="n">
-        <v>225381.5874967276</v>
+        <v>224709.6325944697</v>
       </c>
       <c r="N6" t="n">
-        <v>355023.9023356722</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="O6" t="n">
-        <v>355023.9023356727</v>
+        <v>354351.9474334145</v>
       </c>
       <c r="P6" t="n">
-        <v>355023.9023356719</v>
+        <v>354351.9474334145</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.23486270314834</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>188.3138582508886</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.80735538553375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>43.37041367496528</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.10818009763841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185503</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.6879940341566</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>49.31593488086088</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>214.7665585234224</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>177.603282720963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138803</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34240,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34289,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34307,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>837.9641425811438</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>949.3401193508927</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36372,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707616</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340061</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.157696425514</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>897.0044190605943</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407862</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.336699126565</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427823</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230589</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>629.6597897216833</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>740.8875257003393</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1402740.594611886</v>
+        <v>1406146.085736335</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>308.6879100612088</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>18.7734042169175</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>337.5443013290067</v>
       </c>
       <c r="G5" t="n">
-        <v>370.4137563458297</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.85099796338696</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>322.3938476308369</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>102.6153813640004</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>27.65913193862695</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.01587853653081</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>76.28179528121065</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>79.49505480544774</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.0325688578955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>89.85962794794736</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>13.02719212039631</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>109.1426482162462</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.19569619650115</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>7.695578038927279</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.264199955998904</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.89072837997162</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>64.39306735501873</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.0955237083901</v>
+        <v>196.9899243971807</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>107.3160108222347</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>898.3495310014346</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>540.0838323946841</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>540.0838323946841</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>533.1383316454807</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>519.2149275840716</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5174848136515</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>709.1659496438913</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.1659496438913</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.1659496438913</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.1659496438913</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>588.5097680147103</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>581.5642672655068</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4609,10 +4609,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.885551920185</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>891.4467595608955</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>505.6585069626513</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>498.7130062134478</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>484.7896021520388</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>157.5948821880416</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5035,25 +5035,25 @@
         <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008794</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5150,19 +5150,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>737.3554149786647</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>568.4192320507578</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>418.3025926384221</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>270.389499056029</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>123.4995515581186</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>123.4995515581186</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1186.137545020212</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>958.1479941221949</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>737.3554149786647</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5284,19 +5284,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>578.4172407837245</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558177</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
         <v>409.4810578558177</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1687.605263465661</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1398.502396591304</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1143.817908385417</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.3827746590082</v>
+        <v>854.4007383484569</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5658,10 +5658,10 @@
         <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1876.045430947686</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1876.045430947686</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1876.045430947686</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6004,16 +6004,16 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763013</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5418683145538</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X25" t="n">
-        <v>583.5523174165364</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.145682206541</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1023.336921276364</v>
+        <v>361.8228945579559</v>
       </c>
       <c r="C31" t="n">
-        <v>854.4007383484569</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D31" t="n">
-        <v>704.2840989361212</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1865.576165147181</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1643.809549716707</v>
       </c>
       <c r="U31" t="n">
-        <v>1943.184686185112</v>
+        <v>1354.706682842351</v>
       </c>
       <c r="V31" t="n">
-        <v>1943.184686185112</v>
+        <v>1100.022194636464</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.767516148151</v>
+        <v>810.6050245995034</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.777965250134</v>
+        <v>582.6154737014861</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.985386106604</v>
+        <v>361.8228945579559</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.4972173763013</v>
+        <v>500.6091747370274</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>500.6091747370274</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1920.79225782541</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1729.106373652236</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1507.339758221762</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.236891347406</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V34" t="n">
-        <v>963.5524031415189</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W34" t="n">
-        <v>674.1352331045583</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X34" t="n">
-        <v>446.145682206541</v>
+        <v>903.0502187107973</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.145682206541</v>
+        <v>682.2576395672671</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>708.1835515663147</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1951.026092411776</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1951.026092411776</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.923225537419</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>1407.238737331532</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W37" t="n">
-        <v>1117.821567294572</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X37" t="n">
-        <v>889.8320163965544</v>
+        <v>1251.902811570325</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.8320163965544</v>
+        <v>1031.110232426795</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>278.5282561439494</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C40" t="n">
-        <v>109.5920732160425</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D40" t="n">
-        <v>109.5920732160425</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E40" t="n">
-        <v>109.5920732160425</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>109.5920732160425</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052697</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>908.9588510157366</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>680.9693001177193</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y40" t="n">
-        <v>460.1767209741892</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.4972173763013</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>264.4972173763013</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862918</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.2948715744226</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="C46" t="n">
-        <v>500.2948715744226</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="D46" t="n">
-        <v>350.1782321620868</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="E46" t="n">
-        <v>350.1782321620868</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="F46" t="n">
-        <v>350.1782321620868</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7806,10 +7806,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1674.827124689057</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1420.14263648317</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.72546644621</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X46" t="n">
-        <v>902.7359155481925</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y46" t="n">
-        <v>681.9433364046623</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>11.64153443578789</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.53663776704209</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>344.7025836476828</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11071,19 +11071,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>189.7998007892646</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M44" t="n">
-        <v>201.9664098701128</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>117.0958829756938</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.81610164540649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>143.2671539949586</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.437097864599593</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0742887270136</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.55208449419931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>99.90939738349454</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1846460852166</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>39.47282480196614</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>53.73645647354618</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>172.13640214301</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>184.504825375443</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>152.1350798790566</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.1915859970761</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>92.48912964370466</v>
+        <v>21.59472895491405</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>58.70979743679355</v>
+        <v>18.96245366221362</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937585.9195853753</v>
+        <v>937585.9195853752</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937585.9195853752</v>
+        <v>937585.9195853753</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.14426438</v>
       </c>
       <c r="F2" t="n">
         <v>476498.1442643799</v>
@@ -26331,31 +26331,31 @@
         <v>476498.1442643799</v>
       </c>
       <c r="H2" t="n">
+        <v>476498.14426438</v>
+      </c>
+      <c r="I2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="J2" t="n">
         <v>476498.1442643797</v>
       </c>
-      <c r="I2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="J2" t="n">
-        <v>476498.1442643798</v>
-      </c>
       <c r="K2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="L2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="M2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="M2" t="n">
-        <v>476498.1442643798</v>
-      </c>
       <c r="N2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="P2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643798</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499381</v>
@@ -26438,7 +26438,7 @@
         <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
@@ -26450,16 +26450,16 @@
         <v>25090.7236749938</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26490,10 +26490,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-381266.4012871156</v>
       </c>
       <c r="C6" t="n">
+        <v>208701.4779274289</v>
+      </c>
+      <c r="D6" t="n">
         <v>208701.4779274288</v>
       </c>
-      <c r="D6" t="n">
-        <v>208701.4779274286</v>
-      </c>
       <c r="E6" t="n">
-        <v>-373025.4665599923</v>
+        <v>-372420.7071479599</v>
       </c>
       <c r="F6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="G6" t="n">
-        <v>354351.9474334144</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="H6" t="n">
-        <v>354351.9474334143</v>
+        <v>354956.7068454467</v>
       </c>
       <c r="I6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="J6" t="n">
-        <v>177928.7282408214</v>
+        <v>178533.4876528536</v>
       </c>
       <c r="K6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="L6" t="n">
-        <v>354351.9474334146</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="M6" t="n">
-        <v>224709.6325944697</v>
+        <v>225314.3920065017</v>
       </c>
       <c r="N6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454466</v>
       </c>
       <c r="O6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454465</v>
       </c>
       <c r="P6" t="n">
-        <v>354351.9474334145</v>
+        <v>354956.7068454466</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15.23486270314834</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>233.3642391069105</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>69.33174441270478</v>
       </c>
       <c r="G5" t="n">
-        <v>43.37041367496528</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9809822185503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>42.87904414017066</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>49.31593488086088</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32569,10 +32569,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>563.9433698486994</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3309425707616</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>897.0044190605943</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M44" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
